--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aswin\Desktop\Projects\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9FD13-2E9F-4196-BD4A-A5265C1CCBD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB21098E-59E8-4EE2-8743-9B8B83FFA9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Url</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+  </si>
+  <si>
+    <t>aswini.sanal@outlook.com</t>
+  </si>
+  <si>
+    <t>Testing0123*</t>
   </si>
 </sst>
 </file>
@@ -489,36 +495,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -557,13 +563,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -600,10 +606,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -623,10 +629,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
